--- a/Planilha dos horários.xlsx
+++ b/Planilha dos horários.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47beb8eb16c7f43f/Área de Trabalho/Programs/Hor-rios-do-CEFET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="11_07BE7A1F84F400E8E4421BA4461450AFD1AF9E59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7466F9A9-29A6-4879-8D75-9C6146190C03}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="11_07BE7A1F84F400E8E4421BA4461450AFD1AF9E59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15D3FB03-2E3C-407C-916B-0FCF0488DE08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="173">
   <si>
     <t>Professor</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Andre B.</t>
   </si>
   <si>
-    <t>Elcio D.</t>
-  </si>
-  <si>
     <t>Humberto</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Tornearia</t>
   </si>
   <si>
-    <t>Sandro M.</t>
-  </si>
-  <si>
     <t>Aselmo</t>
   </si>
   <si>
@@ -168,18 +162,12 @@
     <t>Rachel</t>
   </si>
   <si>
-    <t>T.M; Metalicos</t>
-  </si>
-  <si>
     <t>Suzanny</t>
   </si>
   <si>
     <t>Trat. Termicos</t>
   </si>
   <si>
-    <t>Victor S.</t>
-  </si>
-  <si>
     <t>Ajustagem</t>
   </si>
   <si>
@@ -189,18 +177,12 @@
     <t>Mayra</t>
   </si>
   <si>
-    <t>T. NãoMetalicos</t>
-  </si>
-  <si>
     <t>Valmir</t>
   </si>
   <si>
     <t>Caldeiraria</t>
   </si>
   <si>
-    <t>Elet. Digi. Básica</t>
-  </si>
-  <si>
     <t>Joel L.</t>
   </si>
   <si>
@@ -231,9 +213,6 @@
     <t>Aderci</t>
   </si>
   <si>
-    <t>CAD / CAM</t>
-  </si>
-  <si>
     <t>Euclides</t>
   </si>
   <si>
@@ -252,317 +231,326 @@
     <t>Claudinei</t>
   </si>
   <si>
+    <t>Metrologia 2</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>M.S.R.A.C.</t>
+  </si>
+  <si>
+    <t>Paulo Rob.</t>
+  </si>
+  <si>
+    <t>Usin. CNC</t>
+  </si>
+  <si>
+    <t>Fresagem</t>
+  </si>
+  <si>
+    <t>Elemaq.</t>
+  </si>
+  <si>
+    <t>Gest. Int.</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Retífica</t>
+  </si>
+  <si>
+    <t>M.Maq.E.I.</t>
+  </si>
+  <si>
+    <t>João Bosco</t>
+  </si>
+  <si>
+    <t>Fundição</t>
+  </si>
+  <si>
+    <t>Calderaria</t>
+  </si>
+  <si>
+    <t>Tec. Fundição</t>
+  </si>
+  <si>
+    <t>Ens. Dest. Não Desti.</t>
+  </si>
+  <si>
+    <t>Ludoff</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Tiago Freitas</t>
+  </si>
+  <si>
+    <t>Rogério</t>
+  </si>
+  <si>
+    <t>Elem. Máquinas</t>
+  </si>
+  <si>
+    <t>Aline Bruna</t>
+  </si>
+  <si>
+    <t>Luciana</t>
+  </si>
+  <si>
+    <t>Nilton</t>
+  </si>
+  <si>
+    <t>M. Motor Endot.</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Tec. Soldagem</t>
+  </si>
+  <si>
+    <t>Mec. Tec. Res. Mat.</t>
+  </si>
+  <si>
+    <t>Coman. Hidraulicos</t>
+  </si>
+  <si>
+    <t>M. Maq. E. I.</t>
+  </si>
+  <si>
+    <t>Cláudio</t>
+  </si>
+  <si>
+    <t>C. L. P.</t>
+  </si>
+  <si>
+    <t>Maria Celeste</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Acionamentos Elétricos</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>Metrologia</t>
+  </si>
+  <si>
+    <t>Cleidson</t>
+  </si>
+  <si>
+    <t>Pedro Bispo</t>
+  </si>
+  <si>
+    <t>Manut. Elétrica</t>
+  </si>
+  <si>
+    <t>Manut. Mecânica</t>
+  </si>
+  <si>
+    <t>Allan Cupertino</t>
+  </si>
+  <si>
+    <t>Circuitos Elétricos 1</t>
+  </si>
+  <si>
+    <t>Tecnologias Mecânicas</t>
+  </si>
+  <si>
+    <t>Lab. Máquinas Elétricas</t>
+  </si>
+  <si>
+    <t>João Paulo</t>
+  </si>
+  <si>
+    <t>Lab. Circuitos Elétricos</t>
+  </si>
+  <si>
+    <t>Circuitos Elétricos 2</t>
+  </si>
+  <si>
+    <t>Máquinas Elétricas</t>
+  </si>
+  <si>
+    <t>Eletrônica Básica</t>
+  </si>
+  <si>
+    <t>Instalções Elétricas</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>Eletro-Hidráulica</t>
+  </si>
+  <si>
+    <t>Eletropneumática</t>
+  </si>
+  <si>
+    <t>Sistemas de Refrigeração</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Automação Industrial</t>
+  </si>
+  <si>
+    <t>Tecnologia da Soldagem</t>
+  </si>
+  <si>
+    <t>André Guimarães</t>
+  </si>
+  <si>
+    <t>Circuitos elétricos</t>
+  </si>
+  <si>
+    <t>Sistemas digitais</t>
+  </si>
+  <si>
+    <t>Eletrônica analóg. e de potência</t>
+  </si>
+  <si>
+    <t>Circuitos elétricos 2</t>
+  </si>
+  <si>
+    <t>Nilton Maia</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo</t>
+  </si>
+  <si>
+    <t>Victor Lima</t>
+  </si>
+  <si>
+    <t>Elementos de máquinas</t>
+  </si>
+  <si>
+    <t>Microcontroladores</t>
+  </si>
+  <si>
+    <t>Robótica</t>
+  </si>
+  <si>
+    <t>Tecnologia da soldagem</t>
+  </si>
+  <si>
+    <t>Eletrohidráulica</t>
+  </si>
+  <si>
+    <t>Lab. de eletroeletrônica</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>ELM</t>
+  </si>
+  <si>
+    <t>Numero de grupos</t>
+  </si>
+  <si>
+    <t>Gestão Integrada</t>
+  </si>
+  <si>
+    <t>Máquinas Térmicas e de Fluxo</t>
+  </si>
+  <si>
+    <t>Lab. De Máquinas elétricas</t>
+  </si>
+  <si>
+    <t>Des. Bas. Mec.</t>
+  </si>
+  <si>
+    <t>Tecnologia dos Materiais.</t>
+  </si>
+  <si>
+    <t>Lógica de Programação</t>
+  </si>
+  <si>
+    <t>Tec. Mat. Não Metal.</t>
+  </si>
+  <si>
+    <t>Mec. Manut.Equip. ind.</t>
+  </si>
+  <si>
+    <t>T.M. Metalicos</t>
+  </si>
+  <si>
+    <t>M.A.Comp.CAD / CAM</t>
+  </si>
+  <si>
+    <t>Cont.Lóg.Prog CLP</t>
+  </si>
+  <si>
+    <t>Gestão integrada</t>
+  </si>
+  <si>
+    <t>Desenho Técnico</t>
+  </si>
+  <si>
+    <t>Programação de Computadores</t>
+  </si>
+  <si>
+    <t>Processos de Usinagem 2</t>
+  </si>
+  <si>
+    <t>Processos de Usinagem 1</t>
+  </si>
+  <si>
+    <t>Elcio Dec.</t>
+  </si>
+  <si>
+    <t>Eudes</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Sandro</t>
+  </si>
+  <si>
+    <t>Elet. Dig. Bas.</t>
+  </si>
+  <si>
+    <t>CAD/CAM</t>
+  </si>
+  <si>
+    <t>M.S.R. ar Cond.</t>
+  </si>
+  <si>
+    <t>C.pneumática</t>
+  </si>
+  <si>
     <t>Des. Maq. Cad</t>
   </si>
   <si>
-    <t>Metrologia 2</t>
-  </si>
-  <si>
-    <t>Leandro</t>
-  </si>
-  <si>
-    <t>M.S.R.A.C.</t>
-  </si>
-  <si>
-    <t>Paulo Rob.</t>
-  </si>
-  <si>
-    <t>Usin. CNC</t>
-  </si>
-  <si>
-    <t>Fresagem</t>
-  </si>
-  <si>
-    <t>Elemaq.</t>
-  </si>
-  <si>
-    <t>Gest. Int.</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>Retífica</t>
-  </si>
-  <si>
-    <t>leonardo</t>
-  </si>
-  <si>
-    <t>M.Maq.E.I.</t>
-  </si>
-  <si>
-    <t>João Bosco</t>
-  </si>
-  <si>
-    <t>Fundição</t>
-  </si>
-  <si>
-    <t>C. Pneumática</t>
-  </si>
-  <si>
-    <t>Calderaria</t>
-  </si>
-  <si>
-    <t>Tec. Fundição</t>
-  </si>
-  <si>
-    <t>Ens. Dest. Não Desti.</t>
-  </si>
-  <si>
-    <t>M. A. Comp. CAD / CAM</t>
-  </si>
-  <si>
-    <t>Ludoff</t>
-  </si>
-  <si>
-    <t>Wellington</t>
-  </si>
-  <si>
-    <t>Coman. Pneumáticos</t>
-  </si>
-  <si>
-    <t>Leonardo R.</t>
-  </si>
-  <si>
-    <t>Mec. Manut. Equip. Ind</t>
-  </si>
-  <si>
-    <t>Cont. Lóg. Prog. CLP</t>
-  </si>
-  <si>
-    <t>Tiago Freitas</t>
-  </si>
-  <si>
-    <t>M. S. R. AR Cond.</t>
-  </si>
-  <si>
-    <t>Rogério</t>
-  </si>
-  <si>
-    <t>Elem. Máquinas</t>
-  </si>
-  <si>
-    <t>Aline Bruna</t>
-  </si>
-  <si>
-    <t>Luciana</t>
-  </si>
-  <si>
-    <t>Nilton</t>
-  </si>
-  <si>
-    <t>M. Motor Endot.</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Tec. Soldagem</t>
-  </si>
-  <si>
-    <t>Maq. Term. Fluxo</t>
-  </si>
-  <si>
-    <t>Mec. Tec. Res. Mat.</t>
-  </si>
-  <si>
-    <t>Des. Maq. CAD-T1</t>
-  </si>
-  <si>
-    <t>Des. Maq. CAD-T2</t>
-  </si>
-  <si>
-    <t>Coman. Hidraulicos</t>
-  </si>
-  <si>
-    <t>Des. Maq. CAD</t>
-  </si>
-  <si>
-    <t>M. Maq. E. I.</t>
-  </si>
-  <si>
-    <t>Cláudio</t>
-  </si>
-  <si>
-    <t>C. L. P.</t>
-  </si>
-  <si>
-    <t>Maria Celeste</t>
-  </si>
-  <si>
-    <t>Elaine</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Acionamentos Elétricos</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>Metrologia</t>
-  </si>
-  <si>
-    <t>Usinagem 1</t>
-  </si>
-  <si>
-    <t>Usinagem 2</t>
-  </si>
-  <si>
-    <t>Desenho Básico e Mec.</t>
-  </si>
-  <si>
-    <t>Tecnologia dos materiais.</t>
-  </si>
-  <si>
-    <t>Cleidson</t>
-  </si>
-  <si>
-    <t>Sistemas Digitais</t>
-  </si>
-  <si>
-    <t>Pedro Bispo</t>
-  </si>
-  <si>
-    <t>Manut. Elétrica</t>
-  </si>
-  <si>
-    <t>Lógica de programação</t>
-  </si>
-  <si>
-    <t>Manut. Mecânica</t>
-  </si>
-  <si>
-    <t>Allan Cupertino</t>
-  </si>
-  <si>
-    <t>Circuitos Elétricos 1</t>
-  </si>
-  <si>
-    <t>Tecnologias Mecânicas</t>
-  </si>
-  <si>
-    <t>Lab. Máquinas Elétricas</t>
-  </si>
-  <si>
-    <t>João Paulo</t>
-  </si>
-  <si>
-    <t>Lab. Circuitos Elétricos</t>
-  </si>
-  <si>
-    <t>Circuitos Elétricos 2</t>
-  </si>
-  <si>
-    <t>Máquinas Elétricas</t>
-  </si>
-  <si>
-    <t>Eletrônica Básica</t>
-  </si>
-  <si>
-    <t>Instalções Elétricas</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>Eletro-Hidráulica</t>
-  </si>
-  <si>
-    <t>Eletropneumática</t>
-  </si>
-  <si>
-    <t>Sistemas de Refrigeração</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Automação Industrial</t>
-  </si>
-  <si>
-    <t>Tecnologia da Soldagem</t>
-  </si>
-  <si>
-    <t>André Guimarães</t>
-  </si>
-  <si>
-    <t>Circuitos elétricos</t>
-  </si>
-  <si>
-    <t>Programação de computadores</t>
-  </si>
-  <si>
-    <t>Sistemas digitais</t>
-  </si>
-  <si>
-    <t>Eletrônica analóg. e de potência</t>
-  </si>
-  <si>
-    <t>Circuitos elétricos 2</t>
-  </si>
-  <si>
-    <t>Nilton Maia</t>
-  </si>
-  <si>
-    <t>Carlos Eduardo</t>
-  </si>
-  <si>
-    <t>Processos de usinagem 1</t>
-  </si>
-  <si>
-    <t>Processos de usinagem 2</t>
-  </si>
-  <si>
-    <t>Victor Lima</t>
-  </si>
-  <si>
-    <t>Elementos de máquinas</t>
-  </si>
-  <si>
-    <t>Eudes Porto</t>
-  </si>
-  <si>
-    <t>Microcontroladores</t>
-  </si>
-  <si>
-    <t>Robótica</t>
-  </si>
-  <si>
-    <t>Tecnologia da soldagem</t>
-  </si>
-  <si>
-    <t>Eletrohidráulica</t>
-  </si>
-  <si>
-    <t>Manutenção mecânica</t>
-  </si>
-  <si>
-    <t>Lab. de eletroeletrônica</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Desenho técnico</t>
-  </si>
-  <si>
-    <t>Tecnologia dos materiais</t>
-  </si>
-  <si>
-    <t>ELM</t>
-  </si>
-  <si>
-    <t>Numero de grupos</t>
+    <t>Des. Maq. Cad_T1</t>
+  </si>
+  <si>
+    <t>Des. Maq. Cad_T2</t>
+  </si>
+  <si>
+    <t>Des. Maq. Cad._T1</t>
+  </si>
+  <si>
+    <t>Des. Maq. Cad._T2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -572,6 +560,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
@@ -602,12 +601,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
@@ -1283,8 +1283,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
+      <c r="A11" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -1305,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
@@ -1319,19 +1319,19 @@
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
@@ -1342,25 +1342,25 @@
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
@@ -1368,98 +1368,98 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
@@ -1470,31 +1470,31 @@
     </row>
     <row r="17" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
@@ -1505,31 +1505,31 @@
     </row>
     <row r="18" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
@@ -1540,31 +1540,31 @@
     </row>
     <row r="19" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>16</v>
@@ -1575,31 +1575,31 @@
     </row>
     <row r="20" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>16</v>
@@ -1616,25 +1616,25 @@
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>16</v>
@@ -1645,31 +1645,31 @@
     </row>
     <row r="22" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>16</v>
@@ -1680,31 +1680,31 @@
     </row>
     <row r="23" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>16</v>
@@ -1715,31 +1715,31 @@
     </row>
     <row r="24" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>16</v>
@@ -1750,31 +1750,31 @@
     </row>
     <row r="25" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>16</v>
@@ -1785,31 +1785,31 @@
     </row>
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>16</v>
@@ -1823,28 +1823,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1876,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>16</v>
@@ -1890,31 +1890,31 @@
     </row>
     <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>16</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>16</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>16</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -2016,10 +2016,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>16</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -2051,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>16</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -2086,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>16</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>16</v>
@@ -2135,19 +2135,19 @@
     </row>
     <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>16</v>
@@ -2158,19 +2158,19 @@
     </row>
     <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>16</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -2202,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>16</v>
@@ -2222,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -2237,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>16</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -2272,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>16</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -2307,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>16</v>
@@ -2321,19 +2321,19 @@
     </row>
     <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>16</v>
@@ -2344,13 +2344,13 @@
     </row>
     <row r="43" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -2365,10 +2365,10 @@
         <v>4</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>16</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -2400,10 +2400,10 @@
         <v>4</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>16</v>
@@ -2414,13 +2414,13 @@
     </row>
     <row r="45" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -2435,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>16</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="46" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -2470,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>16</v>
@@ -2484,13 +2484,13 @@
     </row>
     <row r="47" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -2505,10 +2505,10 @@
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>16</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -2540,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>16</v>
@@ -2554,19 +2554,19 @@
     </row>
     <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>16</v>
@@ -2580,10 +2580,10 @@
         <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -2598,10 +2598,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>16</v>
@@ -2612,13 +2612,13 @@
     </row>
     <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2633,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>16</v>
@@ -2647,13 +2647,13 @@
     </row>
     <row r="52" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -2668,10 +2668,10 @@
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>16</v>
@@ -2682,13 +2682,13 @@
     </row>
     <row r="53" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>16</v>
@@ -2717,19 +2717,19 @@
     </row>
     <row r="54" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>16</v>
@@ -2740,19 +2740,19 @@
     </row>
     <row r="55" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>16</v>
@@ -2763,13 +2763,13 @@
     </row>
     <row r="56" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -2784,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>16</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="57" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -2819,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>16</v>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="58" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -2854,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>16</v>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="59" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
@@ -2889,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>16</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="60" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>26</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="61" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>25</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>26</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="62" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>25</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>26</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="63" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>25</v>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>26</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="64" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>25</v>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>26</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="65" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>18</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>26</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="66" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>25</v>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>26</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="67" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>25</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>26</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="68" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>25</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>26</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="69" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>25</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>26</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="70" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>25</v>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>26</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="71" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>25</v>
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>26</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="72" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>25</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="73" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>25</v>
@@ -3367,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>26</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="74" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>25</v>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>26</v>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="75" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>25</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>26</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="76" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>25</v>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>26</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="77" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>25</v>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>26</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="78" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>25</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>26</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="79" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>25</v>
@@ -3579,10 +3579,10 @@
     </row>
     <row r="80" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>25</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="81" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>25</v>
@@ -3623,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>26</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="82" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>25</v>
@@ -3658,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>26</v>
@@ -3672,10 +3672,10 @@
     </row>
     <row r="83" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>25</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>26</v>
@@ -3710,7 +3710,7 @@
         <v>23</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>25</v>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>26</v>
@@ -3745,7 +3745,7 @@
         <v>29</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>25</v>
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>26</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="86" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>25</v>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>26</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="87" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>14</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="88" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>14</v>
@@ -3856,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>15</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="89" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>14</v>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>15</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="90" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>15</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="91" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>15</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="92" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>14</v>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>15</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="93" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>14</v>
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>15</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="94" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>15</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="95" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>14</v>
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>15</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="96" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>14</v>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>15</v>
@@ -4150,10 +4150,10 @@
     </row>
     <row r="97" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>14</v>
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>15</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="98" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>15</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="99" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>14</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>15</v>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="100" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>14</v>
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>15</v>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>15</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>14</v>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>15</v>
@@ -4363,7 +4363,7 @@
         <v>28</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>14</v>
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>15</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>14</v>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>15</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>14</v>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>15</v>
@@ -4465,19 +4465,19 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D106" s="1">
-        <v>2</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>16</v>
@@ -4488,31 +4488,31 @@
     </row>
     <row r="107" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D107" s="1">
-        <v>2</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1">
-        <v>2</v>
-      </c>
-      <c r="G107" s="1">
-        <v>1</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>16</v>
@@ -4523,31 +4523,31 @@
     </row>
     <row r="108" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D108" s="1">
-        <v>2</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1">
-        <v>2</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>16</v>
@@ -4558,31 +4558,31 @@
     </row>
     <row r="109" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D109" s="1">
-        <v>2</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1">
-        <v>2</v>
-      </c>
-      <c r="G109" s="1">
-        <v>1</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>16</v>
@@ -4593,31 +4593,31 @@
     </row>
     <row r="110" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D110" s="1">
-        <v>2</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1">
-        <v>2</v>
-      </c>
-      <c r="G110" s="1">
-        <v>1</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>16</v>
@@ -4628,31 +4628,31 @@
     </row>
     <row r="111" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D111" s="1">
-        <v>2</v>
-      </c>
-      <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1">
-        <v>2</v>
-      </c>
-      <c r="G111" s="1">
-        <v>1</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>16</v>
@@ -4663,31 +4663,31 @@
     </row>
     <row r="112" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D112" s="1">
-        <v>2</v>
-      </c>
-      <c r="E112" s="1">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1">
-        <v>2</v>
-      </c>
-      <c r="G112" s="1">
-        <v>1</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>16</v>
@@ -4698,31 +4698,31 @@
     </row>
     <row r="113" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D113" s="1">
-        <v>2</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1">
-        <v>2</v>
-      </c>
-      <c r="G113" s="1">
-        <v>1</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>16</v>
@@ -4733,31 +4733,31 @@
     </row>
     <row r="114" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D114" s="1">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1</v>
-      </c>
-      <c r="F114" s="1">
-        <v>2</v>
-      </c>
-      <c r="G114" s="1">
-        <v>1</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>16</v>
@@ -4768,19 +4768,19 @@
     </row>
     <row r="115" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D115" s="1">
-        <v>2</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>16</v>
@@ -4791,19 +4791,19 @@
     </row>
     <row r="116" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D116" s="1">
-        <v>2</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>16</v>
@@ -4814,31 +4814,31 @@
     </row>
     <row r="117" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>2</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D117" s="1">
-        <v>2</v>
-      </c>
-      <c r="E117" s="1">
-        <v>1</v>
-      </c>
-      <c r="F117" s="1">
-        <v>2</v>
-      </c>
-      <c r="G117" s="1">
-        <v>1</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>16</v>
@@ -4849,31 +4849,31 @@
     </row>
     <row r="118" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D118" s="1">
-        <v>2</v>
-      </c>
-      <c r="E118" s="1">
-        <v>1</v>
-      </c>
-      <c r="F118" s="1">
-        <v>2</v>
-      </c>
-      <c r="G118" s="1">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>16</v>
@@ -4887,28 +4887,28 @@
         <v>28</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1">
-        <v>2</v>
-      </c>
-      <c r="G119" s="1">
-        <v>1</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>16</v>
@@ -4919,31 +4919,31 @@
     </row>
     <row r="120" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D120" s="1">
-        <v>2</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1</v>
-      </c>
-      <c r="F120" s="1">
-        <v>2</v>
-      </c>
-      <c r="G120" s="1">
-        <v>1</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>16</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="121" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>14</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="122" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>14</v>
@@ -5000,10 +5000,10 @@
     </row>
     <row r="123" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
@@ -5021,7 +5021,7 @@
         <v>4</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>15</v>
@@ -5035,10 +5035,10 @@
     </row>
     <row r="124" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>114</v>
+        <v>160</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>14</v>
@@ -5056,7 +5056,7 @@
         <v>4</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>15</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="125" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>14</v>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>15</v>
@@ -5108,7 +5108,7 @@
         <v>17</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>15</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="127" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>14</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>15</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="128" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>14</v>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>15</v>
@@ -5210,13 +5210,13 @@
     </row>
     <row r="129" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -5231,13 +5231,13 @@
         <v>1</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N129" s="1">
         <v>4</v>
@@ -5248,10 +5248,10 @@
         <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -5266,10 +5266,10 @@
         <v>1</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>16</v>
@@ -5280,13 +5280,13 @@
     </row>
     <row r="131" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -5301,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>16</v>
@@ -5315,13 +5315,13 @@
     </row>
     <row r="132" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -5336,10 +5336,10 @@
         <v>1</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>16</v>
@@ -5350,19 +5350,19 @@
     </row>
     <row r="133" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>16</v>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="134" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>16</v>
@@ -5396,13 +5396,13 @@
     </row>
     <row r="135" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -5417,10 +5417,10 @@
         <v>2</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>16</v>
@@ -5431,13 +5431,13 @@
     </row>
     <row r="136" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -5452,10 +5452,10 @@
         <v>2</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>16</v>
@@ -5466,13 +5466,13 @@
     </row>
     <row r="137" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -5487,13 +5487,13 @@
         <v>1</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N137" s="1">
         <v>4</v>
@@ -5501,13 +5501,13 @@
     </row>
     <row r="138" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -5522,13 +5522,13 @@
         <v>1</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N138" s="1">
         <v>4</v>
@@ -5536,13 +5536,13 @@
     </row>
     <row r="139" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
@@ -5557,13 +5557,13 @@
         <v>1</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N139" s="1">
         <v>4</v>
@@ -5571,13 +5571,13 @@
     </row>
     <row r="140" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
@@ -5592,10 +5592,10 @@
         <v>1</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>16</v>
@@ -5606,19 +5606,19 @@
     </row>
     <row r="141" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>16</v>
@@ -5629,19 +5629,19 @@
     </row>
     <row r="142" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>16</v>
@@ -5652,13 +5652,13 @@
     </row>
     <row r="143" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5673,13 +5673,13 @@
         <v>4</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N143" s="1">
         <v>2</v>
@@ -5687,13 +5687,13 @@
     </row>
     <row r="144" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144" s="1">
         <v>2</v>
@@ -5708,13 +5708,13 @@
         <v>4</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N144" s="1">
         <v>2</v>
@@ -5725,16 +5725,16 @@
         <v>29</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>16</v>
@@ -5745,19 +5745,19 @@
     </row>
     <row r="146" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D146" s="1">
         <v>2</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>16</v>
@@ -5771,10 +5771,10 @@
         <v>17</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D147" s="1">
         <v>2</v>
@@ -5789,13 +5789,13 @@
         <v>2</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N147" s="1">
         <v>4</v>
@@ -5803,13 +5803,13 @@
     </row>
     <row r="148" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -5824,13 +5824,13 @@
         <v>2</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N148" s="1">
         <v>4</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="149" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5859,10 +5859,10 @@
         <v>1</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>16</v>
@@ -5873,13 +5873,13 @@
     </row>
     <row r="150" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" s="1">
         <v>2</v>
@@ -5894,10 +5894,10 @@
         <v>1</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>16</v>
@@ -5908,13 +5908,13 @@
     </row>
     <row r="151" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" s="1">
         <v>2</v>
@@ -5929,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>16</v>
@@ -5943,13 +5943,13 @@
     </row>
     <row r="152" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5964,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>16</v>
@@ -5981,10 +5981,10 @@
         <v>12</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -5999,10 +5999,10 @@
         <v>2</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>16</v>
@@ -6013,13 +6013,13 @@
     </row>
     <row r="154" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" s="1">
         <v>2</v>
@@ -6034,13 +6034,13 @@
         <v>1</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N154" s="1">
         <v>4</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="155" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="1">
         <v>2</v>
@@ -6069,10 +6069,10 @@
         <v>1</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>16</v>
@@ -6086,7 +6086,7 @@
         <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>14</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="157" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>14</v>
@@ -6127,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>26</v>
@@ -6141,10 +6141,10 @@
     </row>
     <row r="158" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>14</v>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>26</v>
@@ -6176,10 +6176,10 @@
     </row>
     <row r="159" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>14</v>
@@ -6199,10 +6199,10 @@
     </row>
     <row r="160" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>14</v>
@@ -6220,7 +6220,7 @@
         <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>26</v>
@@ -6234,10 +6234,10 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>14</v>
@@ -6255,13 +6255,13 @@
         <v>1</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M161" s="1">
         <v>4</v>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="162" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>14</v>
@@ -6290,13 +6290,13 @@
         <v>1</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M162" s="1">
         <v>4</v>
@@ -6304,10 +6304,10 @@
     </row>
     <row r="163" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>14</v>
@@ -6325,7 +6325,7 @@
         <v>4</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>26</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="164" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>14</v>
@@ -6360,7 +6360,7 @@
         <v>4</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>26</v>
@@ -6377,7 +6377,7 @@
         <v>29</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>14</v>
@@ -6397,10 +6397,10 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>14</v>
@@ -6420,10 +6420,10 @@
     </row>
     <row r="167" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>14</v>
@@ -6443,10 +6443,10 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>14</v>
@@ -6464,13 +6464,13 @@
         <v>1</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M168" s="1">
         <v>4</v>
@@ -6478,10 +6478,10 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>14</v>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>26</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>14</v>
@@ -6534,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>26</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>14</v>
@@ -6569,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>26</v>
@@ -6583,10 +6583,10 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>14</v>
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>26</v>
@@ -6618,10 +6618,10 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>14</v>
@@ -6639,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M173" s="1">
         <v>4</v>
@@ -6656,7 +6656,7 @@
         <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>26</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>14</v>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>26</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>14</v>
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>26</v>
@@ -6781,10 +6781,10 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>14</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>26</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>14</v>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>26</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>14</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>14</v>
@@ -6899,13 +6899,13 @@
         <v>4</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M181" s="1">
         <v>2</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>14</v>
@@ -6934,20 +6934,21 @@
         <v>4</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M182" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>